--- a/weekly/hello.xlsx
+++ b/weekly/hello.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>周工作总结表</t>
   </si>
@@ -67,13 +67,22 @@
     <t>备注</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>测试datetime</t>
-  </si>
-  <si>
-    <t>B</t>
+    <t>学习VUE</t>
+  </si>
+  <si>
+    <t>哈哈</t>
+  </si>
+  <si>
+    <t>4点啦</t>
+  </si>
+  <si>
+    <t>舒服点</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>新增测试</t>
   </si>
 </sst>
 </file>
@@ -428,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -548,7 +557,7 @@
         <v>17</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -556,7 +565,7 @@
         <v>18</v>
       </c>
       <c r="I7">
-        <v>80</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -564,6 +573,30 @@
         <v>19</v>
       </c>
       <c r="I8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11">
         <v>100</v>
       </c>
     </row>

--- a/weekly/hello.xlsx
+++ b/weekly/hello.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>周工作总结表</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>新增测试</t>
+  </si>
+  <si>
+    <t>完成登录</t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,6 +603,14 @@
         <v>100</v>
       </c>
     </row>
+    <row r="12" spans="1:13">
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:M1"/>
